--- a/SPPSApi/Doc/Template/FS0307_template.xlsx
+++ b/SPPSApi/Doc/Template/FS0307_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4CE8BD-0C7A-46FE-9244-F700EE4FA9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C8B7E6-F4A8-466D-908F-7FA2D8783204}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53EC4F36-269C-4961-9E1E-B281C30FC123}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <rPh sb="14" eb="15">
       <t>バン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>生管部 补给管理课</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -332,6 +328,10 @@
     <rPh sb="3" eb="5">
       <t>ブヒン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生管部 补给资材企管课</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1048,30 +1048,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,6 +1081,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1101,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17931,7 +17931,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>收到厂家回答可以持续生产之后，补给课会联络我司调达部与厂家重新报价。                                           </a:t>
+            <a:t>收到厂家回答可以持续生产之后，补给资材企管课会联络我司调达部与厂家重新报价。                                           </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -18352,7 +18352,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1027"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -18692,8 +18692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09213D3-3AB9-4528-9CD5-EA473E179179}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="V13" sqref="F13:V13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18704,14 +18704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -18734,16 +18734,16 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -18766,16 +18766,16 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="8" customFormat="1" ht="102" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -18799,117 +18799,117 @@
     </row>
     <row r="5" spans="1:29" s="17" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="D5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="E5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="F5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="H5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="72" t="s">
+      <c r="M5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="85" t="s">
+      <c r="N5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="86" t="s">
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="89" t="s">
+      <c r="Z5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Z5" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="76"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="68"/>
     </row>
     <row r="6" spans="1:29" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="81"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="21" t="s">
+      <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="P6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="S6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="T6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="U6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="V6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="X6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="79"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
     </row>
     <row r="7" spans="1:29" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A7" s="18"/>
@@ -18974,7 +18974,7 @@
     </row>
     <row r="9" spans="1:29" s="47" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A9" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -19000,7 +19000,7 @@
       <c r="W9" s="55"/>
       <c r="X9" s="55"/>
       <c r="Y9" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="56"/>
       <c r="AA9" s="57"/>
@@ -19024,14 +19024,14 @@
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
       <c r="G11" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
       <c r="K11" s="60"/>
       <c r="L11" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
@@ -19044,7 +19044,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="G12" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="59"/>
@@ -19054,6 +19054,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="Z5:AB6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:K5"/>
@@ -19061,12 +19067,6 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:X5"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0307_template.xlsx
+++ b/SPPSApi/Doc/Template/FS0307_template.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C8B7E6-F4A8-466D-908F-7FA2D8783204}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53EC4F36-269C-4961-9E1E-B281C30FC123}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="帐票模板" sheetId="1" r:id="rId1"/>
+    <sheet name="帐票模板" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -43,6 +32,10 @@
     <rPh sb="14" eb="15">
       <t>バン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生管部 补给资材企管课</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -330,15 +323,11 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
-  <si>
-    <t>生管部 补给资材企管课</t>
-    <phoneticPr fontId="3"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
@@ -347,7 +336,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -361,7 +350,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,7 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -988,6 +977,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1041,12 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,13 +1117,10 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1160,7 +1146,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F45C19-622D-4250-9523-6BE9D265952A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F45C19-622D-4250-9523-6BE9D265952A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,7 +1156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17228820" y="693420"/>
+          <a:off x="19345275" y="695325"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1214,7 +1200,7 @@
         <xdr:cNvPr id="3" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3599E-1082-4F3A-BAF6-1F0327B099C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3599E-1082-4F3A-BAF6-1F0327B099C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17228820" y="281940"/>
+          <a:off x="19345275" y="281940"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1268,18 +1254,18 @@
         <xdr:cNvPr id="4" name="テキスト 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6600D6-2256-4C83-A704-414712C89064}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14589125" y="4185920"/>
-          <a:ext cx="0" cy="475155"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6600D6-2256-4C83-A704-414712C89064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16324580" y="4197350"/>
+          <a:ext cx="0" cy="484680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,17 +1383,17 @@
         <xdr:cNvPr id="5" name="テキスト 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614997DC-BE08-4FFF-9025-9F34C5B596F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17228820" y="3909060"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614997DC-BE08-4FFF-9025-9F34C5B596F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19345275" y="3914775"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1472,18 +1458,18 @@
         <xdr:cNvPr id="6" name="テキスト 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6737D7-7321-4E2B-B1E4-4273398B6E37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="55880" y="2598420"/>
-          <a:ext cx="158353" cy="196215"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6737D7-7321-4E2B-B1E4-4273398B6E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="55880" y="2600325"/>
+          <a:ext cx="158353" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,20 +1535,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Text Box 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F82C53-A016-4EFE-84B7-5EE266DD63F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8084820" y="3489960"/>
+        <xdr:cNvPr id="7" name="Text Box 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F82C53-A016-4EFE-84B7-5EE266DD63F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9058275" y="3495675"/>
           <a:ext cx="68580" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1610,20 +1596,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FA39AA-1140-4D42-BA44-E3E7396DB07D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+        <xdr:cNvPr id="8" name="Text Box 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FA39AA-1140-4D42-BA44-E3E7396DB07D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="0" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1671,52 +1657,164 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F96F88-E861-4988-A486-B1E7098D4E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9058275" y="3495675"/>
+          <a:ext cx="68580" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="68580" cy="220980"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA88F41-3CAB-4D72-AD98-77C5E7B83937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
+          <a:ext cx="68580" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="68580" cy="220980"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F96F88-E861-4988-A486-B1E7098D4E00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8084820" y="3489960"/>
-          <a:ext cx="68580" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1889C4D2-FD8D-4F86-93A5-9F81A19D65A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
+          <a:ext cx="68580" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1730,17 +1828,17 @@
         <xdr:cNvPr id="12" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA88F41-3CAB-4D72-AD98-77C5E7B83937}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9168A83C-59A7-4C9E-9005-17ED4F5619FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1786,17 +1884,17 @@
         <xdr:cNvPr id="13" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1889C4D2-FD8D-4F86-93A5-9F81A19D65A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51311D72-5727-4068-846A-312AFE6D6671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1842,17 +1940,17 @@
         <xdr:cNvPr id="14" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9168A83C-59A7-4C9E-9005-17ED4F5619FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8149A0BA-72D2-4E4C-8081-DA9238ECE94A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1898,17 +1996,17 @@
         <xdr:cNvPr id="15" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51311D72-5727-4068-846A-312AFE6D6671}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D779E074-0322-44A1-B2DC-ECBFAB4C5D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1954,17 +2052,17 @@
         <xdr:cNvPr id="16" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8149A0BA-72D2-4E4C-8081-DA9238ECE94A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E900F061-B126-4433-8A9E-4512F96E2443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2010,17 +2108,17 @@
         <xdr:cNvPr id="17" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D779E074-0322-44A1-B2DC-ECBFAB4C5D25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9980F0E6-3BB5-45C3-9C44-9D753CD2F486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2066,17 +2164,17 @@
         <xdr:cNvPr id="18" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E900F061-B126-4433-8A9E-4512F96E2443}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17E115F-2C84-4DC8-9A10-F8DAF56E5649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2122,17 +2220,17 @@
         <xdr:cNvPr id="19" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9980F0E6-3BB5-45C3-9C44-9D753CD2F486}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DAAF92-FDAD-4CAD-B2EF-E5A702FE179D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2178,17 +2276,17 @@
         <xdr:cNvPr id="20" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17E115F-2C84-4DC8-9A10-F8DAF56E5649}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1A2FBB-726E-46C0-93B7-C643A97F5191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2234,17 +2332,17 @@
         <xdr:cNvPr id="21" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DAAF92-FDAD-4CAD-B2EF-E5A702FE179D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B68417-7200-4003-B88B-7E9D9F5C15D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2290,17 +2388,17 @@
         <xdr:cNvPr id="22" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1A2FBB-726E-46C0-93B7-C643A97F5191}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB42F30-7148-4ED8-ABD5-E8645CEBE320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2346,17 +2444,17 @@
         <xdr:cNvPr id="23" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B68417-7200-4003-B88B-7E9D9F5C15D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F898C8-E82A-41BC-9F51-A2D7CBEAE4D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2402,17 +2500,17 @@
         <xdr:cNvPr id="24" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB42F30-7148-4ED8-ABD5-E8645CEBE320}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA423F3-4D6E-4E87-A9E6-ACF8814BF1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2458,17 +2556,17 @@
         <xdr:cNvPr id="25" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F898C8-E82A-41BC-9F51-A2D7CBEAE4D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E05333-5E01-4ED2-899F-71C08E945482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2514,17 +2612,17 @@
         <xdr:cNvPr id="26" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA423F3-4D6E-4E87-A9E6-ACF8814BF1F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470BDBCD-9648-4B42-B1FC-8A977FFD89FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2570,17 +2668,17 @@
         <xdr:cNvPr id="27" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E05333-5E01-4ED2-899F-71C08E945482}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3422A4-2D9B-4EB6-986F-AD87C5460730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2626,17 +2724,17 @@
         <xdr:cNvPr id="28" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470BDBCD-9648-4B42-B1FC-8A977FFD89FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8152913A-376C-45ED-97A6-6C434B5B826C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2682,17 +2780,17 @@
         <xdr:cNvPr id="29" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3422A4-2D9B-4EB6-986F-AD87C5460730}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B6BF8D-9CD6-4972-AC06-E4020459D633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2738,17 +2836,17 @@
         <xdr:cNvPr id="30" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8152913A-376C-45ED-97A6-6C434B5B826C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB579BED-319A-434B-8C41-F3C5569E9C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2794,17 +2892,17 @@
         <xdr:cNvPr id="31" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B6BF8D-9CD6-4972-AC06-E4020459D633}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073B77E0-61B5-4244-8E72-45415EA1F1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2850,17 +2948,17 @@
         <xdr:cNvPr id="32" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB579BED-319A-434B-8C41-F3C5569E9C1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC4E00-CEE7-4568-8056-332DAE0008C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2906,17 +3004,17 @@
         <xdr:cNvPr id="33" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073B77E0-61B5-4244-8E72-45415EA1F1E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF31B5D0-56C5-4855-961B-A8325F668263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2962,17 +3060,17 @@
         <xdr:cNvPr id="34" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC4E00-CEE7-4568-8056-332DAE0008C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60587805-3BBB-4600-B83A-2738B61ED421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3018,17 +3116,17 @@
         <xdr:cNvPr id="35" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF31B5D0-56C5-4855-961B-A8325F668263}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA1AF22-23A0-4DAD-A947-0C073DC71D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3074,17 +3172,17 @@
         <xdr:cNvPr id="36" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60587805-3BBB-4600-B83A-2738B61ED421}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B67B1C-BDBD-49FC-BFBC-790E86513883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3130,17 +3228,17 @@
         <xdr:cNvPr id="37" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA1AF22-23A0-4DAD-A947-0C073DC71D27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C85283A-3003-42EA-BED4-77BF1E10AFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3186,17 +3284,17 @@
         <xdr:cNvPr id="38" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B67B1C-BDBD-49FC-BFBC-790E86513883}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B1E68-345C-4661-81C5-A7FFF83FA2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3242,17 +3340,17 @@
         <xdr:cNvPr id="39" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C85283A-3003-42EA-BED4-77BF1E10AFCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7952FFA0-6D90-4557-B79F-DFACE60A35DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3298,17 +3396,17 @@
         <xdr:cNvPr id="40" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B1E68-345C-4661-81C5-A7FFF83FA2BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E76CDC5-E7DC-4A49-BF96-E85F8C4F9201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3354,17 +3452,17 @@
         <xdr:cNvPr id="41" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7952FFA0-6D90-4557-B79F-DFACE60A35DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D4824D-9B0C-4A83-9B99-D932667D6D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3410,17 +3508,17 @@
         <xdr:cNvPr id="42" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E76CDC5-E7DC-4A49-BF96-E85F8C4F9201}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6F23EE-A7FD-40EC-A98D-4112F3CB0CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3466,17 +3564,17 @@
         <xdr:cNvPr id="43" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D4824D-9B0C-4A83-9B99-D932667D6D55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD3B341-E7E2-4400-B2A7-EC52CC04959E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3522,17 +3620,17 @@
         <xdr:cNvPr id="44" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6F23EE-A7FD-40EC-A98D-4112F3CB0CFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1147B90F-424F-4FA2-B9EC-CCFFB819B82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3578,17 +3676,17 @@
         <xdr:cNvPr id="45" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD3B341-E7E2-4400-B2A7-EC52CC04959E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE2532E-0EDE-4CAD-9D66-17D87329B288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3634,17 +3732,17 @@
         <xdr:cNvPr id="46" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1147B90F-424F-4FA2-B9EC-CCFFB819B82C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C728897-9E31-4A27-8127-63349663811D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3690,17 +3788,17 @@
         <xdr:cNvPr id="47" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE2532E-0EDE-4CAD-9D66-17D87329B288}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40C2AB5-C890-4671-93C6-4BB6E6717B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3746,17 +3844,17 @@
         <xdr:cNvPr id="48" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C728897-9E31-4A27-8127-63349663811D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F582BCA-27F3-40E1-9DAE-EE9BE21ACBA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3802,17 +3900,17 @@
         <xdr:cNvPr id="49" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40C2AB5-C890-4671-93C6-4BB6E6717B7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01353C1-7399-4C37-A43E-E9028FE544AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3858,17 +3956,17 @@
         <xdr:cNvPr id="50" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F582BCA-27F3-40E1-9DAE-EE9BE21ACBA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABAC783-80FD-4D1E-A9FF-03F6B3A25D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3914,17 +4012,17 @@
         <xdr:cNvPr id="51" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01353C1-7399-4C37-A43E-E9028FE544AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609A11E5-C97D-4DE0-83FD-84F8470EB0A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3970,17 +4068,17 @@
         <xdr:cNvPr id="52" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABAC783-80FD-4D1E-A9FF-03F6B3A25D03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC25B15-5C4E-4D42-BE0E-F4CF69846BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4026,17 +4124,17 @@
         <xdr:cNvPr id="53" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609A11E5-C97D-4DE0-83FD-84F8470EB0A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109E4EA0-A695-4168-B285-3D4CCA991686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4082,17 +4180,17 @@
         <xdr:cNvPr id="54" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC25B15-5C4E-4D42-BE0E-F4CF69846BD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68878C57-17B7-4707-9941-8243035294C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4138,17 +4236,17 @@
         <xdr:cNvPr id="55" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109E4EA0-A695-4168-B285-3D4CCA991686}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E0E1FE-C37D-40EF-96FD-D83EA42537CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4194,17 +4292,17 @@
         <xdr:cNvPr id="56" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68878C57-17B7-4707-9941-8243035294C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F946AEE1-AD4A-4104-AB6D-F402371870CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4250,17 +4348,17 @@
         <xdr:cNvPr id="57" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E0E1FE-C37D-40EF-96FD-D83EA42537CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19075A50-8C1E-423A-97B1-62650A461EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4306,17 +4404,17 @@
         <xdr:cNvPr id="58" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F946AEE1-AD4A-4104-AB6D-F402371870CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DA5535-7262-4D14-B2F9-0930F75E8467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4362,17 +4460,17 @@
         <xdr:cNvPr id="59" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19075A50-8C1E-423A-97B1-62650A461EAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD28C8CC-9D11-43DB-B3D9-11DBB2D01CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4418,17 +4516,17 @@
         <xdr:cNvPr id="60" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DA5535-7262-4D14-B2F9-0930F75E8467}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8107BCD8-CACE-42A7-9F72-500F66806FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4474,17 +4572,17 @@
         <xdr:cNvPr id="61" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD28C8CC-9D11-43DB-B3D9-11DBB2D01CF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73998C50-7775-431D-80D1-104B0ADB235B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4530,17 +4628,17 @@
         <xdr:cNvPr id="62" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8107BCD8-CACE-42A7-9F72-500F66806FA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDFB58F-C440-4DF1-BE48-82B9344F703A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4586,17 +4684,17 @@
         <xdr:cNvPr id="63" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73998C50-7775-431D-80D1-104B0ADB235B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB51EA5-1C70-4F04-A1E1-5B32548B12F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4642,17 +4740,17 @@
         <xdr:cNvPr id="64" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDFB58F-C440-4DF1-BE48-82B9344F703A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE5DA61-7084-41AC-A111-9A478A90E4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4698,17 +4796,17 @@
         <xdr:cNvPr id="65" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB51EA5-1C70-4F04-A1E1-5B32548B12F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61893FA2-CF64-4A85-95BD-E27212F4D49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4754,17 +4852,17 @@
         <xdr:cNvPr id="66" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE5DA61-7084-41AC-A111-9A478A90E4DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944B4E5-DB71-4A47-BAD5-8897AACC8383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4810,17 +4908,17 @@
         <xdr:cNvPr id="67" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61893FA2-CF64-4A85-95BD-E27212F4D49D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB637058-027D-4AE3-AA82-EE2B00ED7C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4866,17 +4964,17 @@
         <xdr:cNvPr id="68" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944B4E5-DB71-4A47-BAD5-8897AACC8383}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FFF409-C5AB-48B6-B85C-80031B14A8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4922,17 +5020,17 @@
         <xdr:cNvPr id="69" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB637058-027D-4AE3-AA82-EE2B00ED7C6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4CB901-7F0A-45AC-905E-EB7628D1A2F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4978,17 +5076,17 @@
         <xdr:cNvPr id="70" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FFF409-C5AB-48B6-B85C-80031B14A8D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1034D1C8-3420-4CAC-9F45-6749B82A331D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5034,17 +5132,17 @@
         <xdr:cNvPr id="71" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4CB901-7F0A-45AC-905E-EB7628D1A2F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8421E150-2152-4025-A0BE-F69E66A81760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5090,17 +5188,17 @@
         <xdr:cNvPr id="72" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1034D1C8-3420-4CAC-9F45-6749B82A331D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB17F5A-907C-4907-9F82-DA37356501A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5146,17 +5244,17 @@
         <xdr:cNvPr id="73" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8421E150-2152-4025-A0BE-F69E66A81760}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3EC977-5454-435C-B00D-C5D3F4F0A0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5202,17 +5300,17 @@
         <xdr:cNvPr id="74" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB17F5A-907C-4907-9F82-DA37356501A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20ECF540-1A67-4928-B108-17BF7E1C2340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5258,17 +5356,17 @@
         <xdr:cNvPr id="75" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3EC977-5454-435C-B00D-C5D3F4F0A0C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BC9F51-1D48-4023-B57F-DD1D1989CB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5314,17 +5412,17 @@
         <xdr:cNvPr id="76" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20ECF540-1A67-4928-B108-17BF7E1C2340}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853117F9-9A03-4EF0-80E8-6B4E4EE7DE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5370,17 +5468,17 @@
         <xdr:cNvPr id="77" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BC9F51-1D48-4023-B57F-DD1D1989CB84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD4E21B-83DC-44A2-9D95-2B1EB08F2F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5426,17 +5524,17 @@
         <xdr:cNvPr id="78" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853117F9-9A03-4EF0-80E8-6B4E4EE7DE44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD09A2FF-5FCF-4772-BF9F-F5E9F43B2EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5482,17 +5580,17 @@
         <xdr:cNvPr id="79" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD4E21B-83DC-44A2-9D95-2B1EB08F2F8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D172F573-0DB6-45ED-9B76-259E6D82FB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5538,17 +5636,17 @@
         <xdr:cNvPr id="80" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD09A2FF-5FCF-4772-BF9F-F5E9F43B2EA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB512DD-8EBE-41FD-AAC3-924D8249AE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5594,17 +5692,17 @@
         <xdr:cNvPr id="81" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D172F573-0DB6-45ED-9B76-259E6D82FB1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C81C4D-F188-4CB0-939C-7BCD9263BDFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5650,17 +5748,17 @@
         <xdr:cNvPr id="82" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB512DD-8EBE-41FD-AAC3-924D8249AE16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C9B619-57B0-4514-A961-CF2D6F26B0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5706,17 +5804,17 @@
         <xdr:cNvPr id="83" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C81C4D-F188-4CB0-939C-7BCD9263BDFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B8F499-1C1F-4C70-83D8-3AFF7A4EC96E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5762,17 +5860,17 @@
         <xdr:cNvPr id="84" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C9B619-57B0-4514-A961-CF2D6F26B0C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D527500-E0CF-4277-9CBD-FD613DD2281E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5818,17 +5916,17 @@
         <xdr:cNvPr id="85" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B8F499-1C1F-4C70-83D8-3AFF7A4EC96E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC67A68-67E0-4D82-8C2B-116F9EF556A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5874,17 +5972,17 @@
         <xdr:cNvPr id="86" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D527500-E0CF-4277-9CBD-FD613DD2281E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBE95D7-DF0F-4A94-8EA4-58DFFC0A8548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5930,17 +6028,17 @@
         <xdr:cNvPr id="87" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC67A68-67E0-4D82-8C2B-116F9EF556A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9732C944-060D-4E42-BFB0-C01E0EB082F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5986,17 +6084,17 @@
         <xdr:cNvPr id="88" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBE95D7-DF0F-4A94-8EA4-58DFFC0A8548}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1285B0DA-4A76-484E-9C8F-6A9D7E1E634B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6042,17 +6140,17 @@
         <xdr:cNvPr id="89" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9732C944-060D-4E42-BFB0-C01E0EB082F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4822CD0F-FF8F-464A-A4E7-3F3B2A9AEAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6098,17 +6196,17 @@
         <xdr:cNvPr id="90" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1285B0DA-4A76-484E-9C8F-6A9D7E1E634B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDB088F-954A-4C13-B79A-5B6A55529A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6154,17 +6252,17 @@
         <xdr:cNvPr id="91" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4822CD0F-FF8F-464A-A4E7-3F3B2A9AEAF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA35C612-AE3D-4FD3-B126-A15199F3C513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6210,17 +6308,17 @@
         <xdr:cNvPr id="92" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDB088F-954A-4C13-B79A-5B6A55529A52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67A2DD7-50B7-4734-8A0E-9803A8026AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6266,17 +6364,17 @@
         <xdr:cNvPr id="93" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA35C612-AE3D-4FD3-B126-A15199F3C513}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1AC26F-F0B8-4B76-A1F6-8D8193843012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6322,17 +6420,17 @@
         <xdr:cNvPr id="94" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67A2DD7-50B7-4734-8A0E-9803A8026AB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAD1CC4-8D2A-40C5-9C78-790B1662430F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6378,17 +6476,17 @@
         <xdr:cNvPr id="95" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1AC26F-F0B8-4B76-A1F6-8D8193843012}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C5FBCB-8568-4E9B-8D97-D2841D1C0413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6434,17 +6532,17 @@
         <xdr:cNvPr id="96" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAD1CC4-8D2A-40C5-9C78-790B1662430F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469CA407-960A-4E4A-9FD3-D85D8AF2CC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6490,17 +6588,17 @@
         <xdr:cNvPr id="97" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C5FBCB-8568-4E9B-8D97-D2841D1C0413}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644C4F5F-542D-4232-987E-715EABBBB93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6546,17 +6644,17 @@
         <xdr:cNvPr id="98" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469CA407-960A-4E4A-9FD3-D85D8AF2CC95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7794B8F-4CA9-4C64-85B6-E699BB1DCFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6602,17 +6700,17 @@
         <xdr:cNvPr id="99" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644C4F5F-542D-4232-987E-715EABBBB93C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A598646-BF38-41D0-8421-819C8741D940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6658,17 +6756,17 @@
         <xdr:cNvPr id="100" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7794B8F-4CA9-4C64-85B6-E699BB1DCFC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3758C48E-7409-4611-97DB-238DCB1A84D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6714,17 +6812,17 @@
         <xdr:cNvPr id="101" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A598646-BF38-41D0-8421-819C8741D940}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84853DFC-894F-44B1-8E6D-98E801C7260A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6770,17 +6868,17 @@
         <xdr:cNvPr id="102" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3758C48E-7409-4611-97DB-238DCB1A84D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FFFD60-EDDA-4AB4-BA8A-9FE591002B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6826,17 +6924,17 @@
         <xdr:cNvPr id="103" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84853DFC-894F-44B1-8E6D-98E801C7260A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABDB343-A81D-4EE8-9995-A14BBEDDC675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6882,17 +6980,17 @@
         <xdr:cNvPr id="104" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FFFD60-EDDA-4AB4-BA8A-9FE591002B8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B33DF3-2489-4D02-A914-9AF8E3BA2C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6938,17 +7036,17 @@
         <xdr:cNvPr id="105" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABDB343-A81D-4EE8-9995-A14BBEDDC675}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A5226F-38CA-47BA-9B7F-FE011683CE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6994,17 +7092,17 @@
         <xdr:cNvPr id="106" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B33DF3-2489-4D02-A914-9AF8E3BA2C43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3361A600-A3FA-4AC2-8668-6DE1C70B5FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7050,17 +7148,17 @@
         <xdr:cNvPr id="107" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A5226F-38CA-47BA-9B7F-FE011683CE02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEF2108-CC6B-4A78-9059-0E5F95DB5555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7106,17 +7204,17 @@
         <xdr:cNvPr id="108" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3361A600-A3FA-4AC2-8668-6DE1C70B5FF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A65B77-3B20-4043-BFAD-505E73DFCD2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7162,17 +7260,17 @@
         <xdr:cNvPr id="109" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEF2108-CC6B-4A78-9059-0E5F95DB5555}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA09E60-7451-4184-B4F7-3869EA0CB963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7218,17 +7316,17 @@
         <xdr:cNvPr id="110" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A65B77-3B20-4043-BFAD-505E73DFCD2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558519C9-EE58-4DC6-A321-55218438A939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7274,17 +7372,17 @@
         <xdr:cNvPr id="111" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA09E60-7451-4184-B4F7-3869EA0CB963}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E6F4DD-B0C7-4BE9-BFC8-804983E53ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7330,17 +7428,17 @@
         <xdr:cNvPr id="112" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558519C9-EE58-4DC6-A321-55218438A939}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A7BF2B-A082-461C-BCFE-977D7F662562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7386,17 +7484,17 @@
         <xdr:cNvPr id="113" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E6F4DD-B0C7-4BE9-BFC8-804983E53ABC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B153352-4E0E-4487-8260-946A97DE1125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7442,17 +7540,17 @@
         <xdr:cNvPr id="114" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A7BF2B-A082-461C-BCFE-977D7F662562}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5955376-6EEF-4109-A826-A765406780A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7498,17 +7596,17 @@
         <xdr:cNvPr id="115" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B153352-4E0E-4487-8260-946A97DE1125}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202B0AB1-33CA-48C3-9054-430FF22D94F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7554,17 +7652,17 @@
         <xdr:cNvPr id="116" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5955376-6EEF-4109-A826-A765406780A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A64D11-AFDD-4E9A-A811-2B15098DA9E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7610,17 +7708,17 @@
         <xdr:cNvPr id="117" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202B0AB1-33CA-48C3-9054-430FF22D94F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904237F4-3F42-400C-BD26-54E230315811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7666,17 +7764,17 @@
         <xdr:cNvPr id="118" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A64D11-AFDD-4E9A-A811-2B15098DA9E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433E5869-BA62-4A26-92DB-0AA985A636B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7722,17 +7820,17 @@
         <xdr:cNvPr id="119" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904237F4-3F42-400C-BD26-54E230315811}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02342FB-15D8-4A45-8652-D99266752736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7778,17 +7876,17 @@
         <xdr:cNvPr id="120" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433E5869-BA62-4A26-92DB-0AA985A636B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FE9C91-1B76-422E-A51F-7B428BE91328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7834,17 +7932,17 @@
         <xdr:cNvPr id="121" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02342FB-15D8-4A45-8652-D99266752736}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D09CA4-2384-43F8-BFB6-1586C5D5EF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7890,17 +7988,17 @@
         <xdr:cNvPr id="122" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FE9C91-1B76-422E-A51F-7B428BE91328}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1F2933-1F8D-4633-92AA-113702C9F7D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7946,17 +8044,17 @@
         <xdr:cNvPr id="123" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D09CA4-2384-43F8-BFB6-1586C5D5EF6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0826DE41-0698-4764-99E2-388467B9B426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8002,17 +8100,17 @@
         <xdr:cNvPr id="124" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1F2933-1F8D-4633-92AA-113702C9F7D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E9E311-5054-47E5-96FF-2D9E28BA1219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8058,17 +8156,17 @@
         <xdr:cNvPr id="125" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0826DE41-0698-4764-99E2-388467B9B426}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62A6A3F-9D8A-46D6-A9A2-00B9161CA592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8114,17 +8212,17 @@
         <xdr:cNvPr id="126" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E9E311-5054-47E5-96FF-2D9E28BA1219}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F378C33E-8ABF-4DB1-AA72-CEC168566043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8170,17 +8268,17 @@
         <xdr:cNvPr id="127" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62A6A3F-9D8A-46D6-A9A2-00B9161CA592}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F072E81E-35F3-4AD8-9E5F-E0423CF2F68D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8226,17 +8324,17 @@
         <xdr:cNvPr id="128" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F378C33E-8ABF-4DB1-AA72-CEC168566043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EFABAD-E082-4FD4-8712-9FEFDA7B6376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8282,17 +8380,17 @@
         <xdr:cNvPr id="129" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F072E81E-35F3-4AD8-9E5F-E0423CF2F68D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48019B9B-E6B6-45A6-829C-3ECF55E0C647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8338,17 +8436,17 @@
         <xdr:cNvPr id="130" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EFABAD-E082-4FD4-8712-9FEFDA7B6376}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0E9C0B-6561-45CC-B09C-B4BFC9EEEF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8394,17 +8492,17 @@
         <xdr:cNvPr id="131" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48019B9B-E6B6-45A6-829C-3ECF55E0C647}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FC52E6-796D-4173-95E2-0FA3BA1151EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8450,17 +8548,17 @@
         <xdr:cNvPr id="132" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0E9C0B-6561-45CC-B09C-B4BFC9EEEF1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E73A7AE-E027-4998-8F9E-70F0041586CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8506,17 +8604,17 @@
         <xdr:cNvPr id="133" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FC52E6-796D-4173-95E2-0FA3BA1151EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC750217-8C7C-40EE-9D20-DBCF736DA856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8562,17 +8660,17 @@
         <xdr:cNvPr id="134" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E73A7AE-E027-4998-8F9E-70F0041586CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0710AED5-368F-4E7F-9271-AA32B8D4C728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8618,17 +8716,17 @@
         <xdr:cNvPr id="135" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC750217-8C7C-40EE-9D20-DBCF736DA856}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC52AB9-FCC8-43C2-B7D8-EADC6BC90972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8674,17 +8772,17 @@
         <xdr:cNvPr id="136" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0710AED5-368F-4E7F-9271-AA32B8D4C728}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9997E94-5249-41B0-977D-50DBB0D2384A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8730,17 +8828,17 @@
         <xdr:cNvPr id="137" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC52AB9-FCC8-43C2-B7D8-EADC6BC90972}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264D0E2B-0E53-4210-BD0F-1B6712B9BA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8786,17 +8884,17 @@
         <xdr:cNvPr id="138" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9997E94-5249-41B0-977D-50DBB0D2384A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E7A028-3005-44B8-BB81-4E0785D5BFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8842,17 +8940,17 @@
         <xdr:cNvPr id="139" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264D0E2B-0E53-4210-BD0F-1B6712B9BA2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7078B42-B9FB-470D-9672-0BC54A60DC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8898,17 +8996,17 @@
         <xdr:cNvPr id="140" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E7A028-3005-44B8-BB81-4E0785D5BFD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB31DAEE-C8F9-4439-AB3A-F6E4AE1151E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8954,17 +9052,17 @@
         <xdr:cNvPr id="141" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7078B42-B9FB-470D-9672-0BC54A60DC87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFC069F-CF03-4DC8-A158-460EA0BB0AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9010,17 +9108,17 @@
         <xdr:cNvPr id="142" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB31DAEE-C8F9-4439-AB3A-F6E4AE1151E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA12ECF-D1CC-4C40-B5F8-199DEC3258BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9066,17 +9164,17 @@
         <xdr:cNvPr id="143" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFC069F-CF03-4DC8-A158-460EA0BB0AD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0A66AF-5156-4FF4-B2D6-0CC5C14BB065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9122,17 +9220,17 @@
         <xdr:cNvPr id="144" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA12ECF-D1CC-4C40-B5F8-199DEC3258BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C292C30-31F1-492F-8065-F6F6A130EDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9178,17 +9276,17 @@
         <xdr:cNvPr id="145" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0A66AF-5156-4FF4-B2D6-0CC5C14BB065}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5574E108-D03A-4590-AA33-0E387401E2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9234,17 +9332,17 @@
         <xdr:cNvPr id="146" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C292C30-31F1-492F-8065-F6F6A130EDD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACA3FDA-44D9-464C-BC55-50802B8FC76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9290,17 +9388,17 @@
         <xdr:cNvPr id="147" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5574E108-D03A-4590-AA33-0E387401E2AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF9AFE9-FA78-4114-9AB8-44A4540E00AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9346,17 +9444,17 @@
         <xdr:cNvPr id="148" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACA3FDA-44D9-464C-BC55-50802B8FC76B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4493AB71-F695-47AE-83EC-8589727FA97E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9402,17 +9500,17 @@
         <xdr:cNvPr id="149" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF9AFE9-FA78-4114-9AB8-44A4540E00AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D63286-D3BD-4862-946B-DB35E299168B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9458,17 +9556,17 @@
         <xdr:cNvPr id="150" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4493AB71-F695-47AE-83EC-8589727FA97E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D47DADF-C741-4E38-91B6-6D3C8283C8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9514,17 +9612,17 @@
         <xdr:cNvPr id="151" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D63286-D3BD-4862-946B-DB35E299168B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896A39C5-43FD-4430-8CB0-C8A28E6AC98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9570,17 +9668,17 @@
         <xdr:cNvPr id="152" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D47DADF-C741-4E38-91B6-6D3C8283C8F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11041DC1-909C-4CB0-B3E9-B7A8D8FC274F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9626,17 +9724,17 @@
         <xdr:cNvPr id="153" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896A39C5-43FD-4430-8CB0-C8A28E6AC98D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B8ADAF-86E2-4DF7-A4CE-8706C42A688B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9682,17 +9780,17 @@
         <xdr:cNvPr id="154" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11041DC1-909C-4CB0-B3E9-B7A8D8FC274F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9888E1DC-58E9-432F-8487-469B43325491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9738,17 +9836,17 @@
         <xdr:cNvPr id="155" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B8ADAF-86E2-4DF7-A4CE-8706C42A688B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7245463-CE26-4E05-8F4F-B20E8046ECE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9794,17 +9892,17 @@
         <xdr:cNvPr id="156" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9888E1DC-58E9-432F-8487-469B43325491}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2067CDE4-3E2E-4420-93F3-CC4C007BE7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9850,17 +9948,17 @@
         <xdr:cNvPr id="157" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7245463-CE26-4E05-8F4F-B20E8046ECE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4F7EEE-0C61-42F2-BC61-714DDA29B77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9906,17 +10004,17 @@
         <xdr:cNvPr id="158" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2067CDE4-3E2E-4420-93F3-CC4C007BE7E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DE6642-9CAD-46D3-A1CD-BC82871296B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9962,17 +10060,17 @@
         <xdr:cNvPr id="159" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4F7EEE-0C61-42F2-BC61-714DDA29B77B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F1128F-B10B-4879-94BD-71DD1CD86DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10018,17 +10116,17 @@
         <xdr:cNvPr id="160" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DE6642-9CAD-46D3-A1CD-BC82871296B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D112D17-AC31-46BC-8ECF-D4E8991C7128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10074,17 +10172,17 @@
         <xdr:cNvPr id="161" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F1128F-B10B-4879-94BD-71DD1CD86DE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237548E5-243C-49F1-8D94-7F667AF7133A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10130,17 +10228,17 @@
         <xdr:cNvPr id="162" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D112D17-AC31-46BC-8ECF-D4E8991C7128}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC935E36-5036-4F01-BDFB-D17E7DC0CFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10186,17 +10284,17 @@
         <xdr:cNvPr id="163" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237548E5-243C-49F1-8D94-7F667AF7133A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D4A08-3A1D-46AC-B83C-D36D7C889ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10242,17 +10340,17 @@
         <xdr:cNvPr id="164" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC935E36-5036-4F01-BDFB-D17E7DC0CFC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56D8B37-E6A8-43AD-850B-C471D5B7CD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10298,17 +10396,17 @@
         <xdr:cNvPr id="165" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3D4A08-3A1D-46AC-B83C-D36D7C889ADF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495A6ADB-0E2E-431F-BF9D-18454B3D9A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10354,17 +10452,17 @@
         <xdr:cNvPr id="166" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56D8B37-E6A8-43AD-850B-C471D5B7CD58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B064D6E2-F3FB-46D4-B56F-8937CCAB977C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10410,17 +10508,17 @@
         <xdr:cNvPr id="167" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495A6ADB-0E2E-431F-BF9D-18454B3D9A2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53ABAE0-3F6E-4C08-B0F2-004B0EB334EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10466,17 +10564,17 @@
         <xdr:cNvPr id="168" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B064D6E2-F3FB-46D4-B56F-8937CCAB977C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F694B2-2961-44D4-A00E-5FB411BF5CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10522,17 +10620,17 @@
         <xdr:cNvPr id="169" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53ABAE0-3F6E-4C08-B0F2-004B0EB334EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D334C972-CFA9-4B2D-BF51-741C145EBDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10578,17 +10676,17 @@
         <xdr:cNvPr id="170" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F694B2-2961-44D4-A00E-5FB411BF5CAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538382FD-58CB-4CFB-AE9C-5EF2F450D8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10634,17 +10732,17 @@
         <xdr:cNvPr id="171" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D334C972-CFA9-4B2D-BF51-741C145EBDD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969BDBBA-23EC-4ED6-90E2-C38A8C3A6C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10690,17 +10788,17 @@
         <xdr:cNvPr id="172" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538382FD-58CB-4CFB-AE9C-5EF2F450D8D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55EBDC2-04EB-4DCB-8022-163688A41DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10746,17 +10844,17 @@
         <xdr:cNvPr id="173" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969BDBBA-23EC-4ED6-90E2-C38A8C3A6C53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE6BBFB-990F-4DDF-9E6A-D63B1920F18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10802,17 +10900,17 @@
         <xdr:cNvPr id="174" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55EBDC2-04EB-4DCB-8022-163688A41DF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF42E97-19F2-498B-8E5E-306F7271E4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10858,17 +10956,17 @@
         <xdr:cNvPr id="175" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE6BBFB-990F-4DDF-9E6A-D63B1920F18A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D205B6-95ED-4E37-944E-DE334A291FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10914,17 +11012,17 @@
         <xdr:cNvPr id="176" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF42E97-19F2-498B-8E5E-306F7271E4B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385C4BD6-0546-4E8B-9510-25A2B8A2EB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10970,17 +11068,17 @@
         <xdr:cNvPr id="177" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D205B6-95ED-4E37-944E-DE334A291FAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCD1D51-622A-4B00-A669-C1579C2E1AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11026,17 +11124,17 @@
         <xdr:cNvPr id="178" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385C4BD6-0546-4E8B-9510-25A2B8A2EB1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906A4BF5-EB26-44BA-A376-CC6F4E144EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11082,17 +11180,17 @@
         <xdr:cNvPr id="179" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCD1D51-622A-4B00-A669-C1579C2E1AE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D062A292-536F-4FCD-BE2E-7B63E4FE99EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11138,17 +11236,17 @@
         <xdr:cNvPr id="180" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906A4BF5-EB26-44BA-A376-CC6F4E144EFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F430463-8464-49C3-9B58-C10253A7E02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11194,17 +11292,17 @@
         <xdr:cNvPr id="181" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D062A292-536F-4FCD-BE2E-7B63E4FE99EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607ED643-462C-4A1D-9903-CF9917FA5CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11250,17 +11348,17 @@
         <xdr:cNvPr id="182" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F430463-8464-49C3-9B58-C10253A7E02A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211E1822-768C-4B5B-84AC-E2BABFC5FEF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11306,17 +11404,17 @@
         <xdr:cNvPr id="183" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607ED643-462C-4A1D-9903-CF9917FA5CEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D131AD92-29DE-48CA-A023-5D9CCD91087C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11362,17 +11460,17 @@
         <xdr:cNvPr id="184" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211E1822-768C-4B5B-84AC-E2BABFC5FEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EB2E75-CED9-44BB-8FE8-B479414843DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11418,17 +11516,17 @@
         <xdr:cNvPr id="185" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D131AD92-29DE-48CA-A023-5D9CCD91087C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA169C4D-CB4D-4415-81D6-E9BB01494E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11474,17 +11572,17 @@
         <xdr:cNvPr id="186" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EB2E75-CED9-44BB-8FE8-B479414843DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085F7394-4F9F-4364-9555-6E1BEFFDF521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11530,17 +11628,17 @@
         <xdr:cNvPr id="187" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA169C4D-CB4D-4415-81D6-E9BB01494E5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA9050C-4AD7-40B0-9191-034A81360BEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11586,17 +11684,17 @@
         <xdr:cNvPr id="188" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085F7394-4F9F-4364-9555-6E1BEFFDF521}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897A1CB7-8F58-470E-BC23-CE560F9290C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11642,17 +11740,17 @@
         <xdr:cNvPr id="189" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA9050C-4AD7-40B0-9191-034A81360BEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502C9DD-1FD6-475E-9A01-93EAF351DA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11698,17 +11796,17 @@
         <xdr:cNvPr id="190" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897A1CB7-8F58-470E-BC23-CE560F9290C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DDEEFA-AA39-4421-A3AD-D3948C3DA353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11754,17 +11852,17 @@
         <xdr:cNvPr id="191" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502C9DD-1FD6-475E-9A01-93EAF351DA3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA97BFD-B794-4449-9CB1-D56DEE3CBCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11810,17 +11908,17 @@
         <xdr:cNvPr id="192" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DDEEFA-AA39-4421-A3AD-D3948C3DA353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E531AAB-5165-4B61-9B36-9F041D4FB821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11866,17 +11964,17 @@
         <xdr:cNvPr id="193" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA97BFD-B794-4449-9CB1-D56DEE3CBCF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2DEF12-97C9-4833-89DA-482EC0B4079B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11922,17 +12020,17 @@
         <xdr:cNvPr id="194" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E531AAB-5165-4B61-9B36-9F041D4FB821}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0536E626-DBBC-4DB7-906A-67A1493E6991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11978,17 +12076,17 @@
         <xdr:cNvPr id="195" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2DEF12-97C9-4833-89DA-482EC0B4079B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE72320-E001-4910-85A1-442D9167C4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12034,17 +12132,17 @@
         <xdr:cNvPr id="196" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0536E626-DBBC-4DB7-906A-67A1493E6991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927A35BF-33B0-480C-B17C-7AAAA56208E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12090,17 +12188,17 @@
         <xdr:cNvPr id="197" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE72320-E001-4910-85A1-442D9167C4DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5404496-44B2-4CDE-A5B2-E703B4E184F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12146,17 +12244,17 @@
         <xdr:cNvPr id="198" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927A35BF-33B0-480C-B17C-7AAAA56208E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913A858D-1D2F-4140-A801-D4D329F32463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12202,17 +12300,17 @@
         <xdr:cNvPr id="199" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5404496-44B2-4CDE-A5B2-E703B4E184F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD81DDA-490F-4156-B676-A8ED50EE4112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12258,17 +12356,17 @@
         <xdr:cNvPr id="200" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913A858D-1D2F-4140-A801-D4D329F32463}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78953B17-7B04-4931-921A-D1BDB5B649D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12314,17 +12412,17 @@
         <xdr:cNvPr id="201" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD81DDA-490F-4156-B676-A8ED50EE4112}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4411545-1A7B-481F-BDE1-233FC4D2F96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12370,17 +12468,17 @@
         <xdr:cNvPr id="202" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78953B17-7B04-4931-921A-D1BDB5B649D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1180AB5F-911F-45C9-8D21-490C1AE5EA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12426,17 +12524,17 @@
         <xdr:cNvPr id="203" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4411545-1A7B-481F-BDE1-233FC4D2F96A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E7257E-502B-40EF-BD7D-B672438C64AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12482,17 +12580,17 @@
         <xdr:cNvPr id="204" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1180AB5F-911F-45C9-8D21-490C1AE5EA2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315122C6-647F-40E3-B9A7-503EB459783C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12538,17 +12636,17 @@
         <xdr:cNvPr id="205" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E7257E-502B-40EF-BD7D-B672438C64AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B82BC9-E3B3-48AB-B199-EA0FF4A36491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12594,17 +12692,17 @@
         <xdr:cNvPr id="206" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315122C6-647F-40E3-B9A7-503EB459783C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41104886-DC3E-4080-B280-F756FD373AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12650,17 +12748,17 @@
         <xdr:cNvPr id="207" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B82BC9-E3B3-48AB-B199-EA0FF4A36491}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FC1E2D-65E5-40EA-B99F-4F35973DD450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12706,17 +12804,17 @@
         <xdr:cNvPr id="208" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41104886-DC3E-4080-B280-F756FD373AE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF26A52-5853-4F7B-B337-0365C1386FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12762,17 +12860,17 @@
         <xdr:cNvPr id="209" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FC1E2D-65E5-40EA-B99F-4F35973DD450}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8EFD0F-6E40-4C3E-8B12-5E610F8E2B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12818,17 +12916,17 @@
         <xdr:cNvPr id="210" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF26A52-5853-4F7B-B337-0365C1386FA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B66E20-7B18-4D53-9E12-417BE793408A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12874,17 +12972,17 @@
         <xdr:cNvPr id="211" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8EFD0F-6E40-4C3E-8B12-5E610F8E2B8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAA8290-7493-480D-BBC6-883F20FDFCFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12930,17 +13028,17 @@
         <xdr:cNvPr id="212" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B66E20-7B18-4D53-9E12-417BE793408A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C89A032-EB35-4FBF-86E6-8E5F2BDCBF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12986,17 +13084,17 @@
         <xdr:cNvPr id="213" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAA8290-7493-480D-BBC6-883F20FDFCFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC88EC86-567D-4A60-9299-6ADB42724673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13042,17 +13140,17 @@
         <xdr:cNvPr id="214" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C89A032-EB35-4FBF-86E6-8E5F2BDCBF7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E680BA87-AA9D-445F-9A00-D2CA59847D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13098,17 +13196,17 @@
         <xdr:cNvPr id="215" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC88EC86-567D-4A60-9299-6ADB42724673}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA9A1C1-55C7-4EB6-B356-43F51C8B1EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13154,17 +13252,17 @@
         <xdr:cNvPr id="216" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E680BA87-AA9D-445F-9A00-D2CA59847D3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C1E53A-AF12-4B65-B457-348443DD5A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13210,17 +13308,17 @@
         <xdr:cNvPr id="217" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA9A1C1-55C7-4EB6-B356-43F51C8B1EC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C8A93F-0AA9-4835-835E-C2609E82E0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13266,17 +13364,17 @@
         <xdr:cNvPr id="218" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C1E53A-AF12-4B65-B457-348443DD5A5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEC01F4-2579-4B14-9118-D9985B7D5B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13322,17 +13420,17 @@
         <xdr:cNvPr id="219" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C8A93F-0AA9-4835-835E-C2609E82E0F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9F8797-B5EF-448D-95F1-AFFD2B51B9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13378,17 +13476,17 @@
         <xdr:cNvPr id="220" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEC01F4-2579-4B14-9118-D9985B7D5B06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3071E195-EF18-4984-9164-416A3CB1017B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13434,17 +13532,17 @@
         <xdr:cNvPr id="221" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9F8797-B5EF-448D-95F1-AFFD2B51B9C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E854ABCF-C965-42AB-8BB4-A532836CFF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13490,17 +13588,17 @@
         <xdr:cNvPr id="222" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3071E195-EF18-4984-9164-416A3CB1017B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2555ACF8-D369-4DCD-9080-B1CD6938446C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13546,17 +13644,17 @@
         <xdr:cNvPr id="223" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E854ABCF-C965-42AB-8BB4-A532836CFF0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6205BA59-80D5-4057-83AF-DAC922AF2BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13602,17 +13700,17 @@
         <xdr:cNvPr id="224" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2555ACF8-D369-4DCD-9080-B1CD6938446C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC3B8A1-78CA-4DC4-9973-16F0FA69E440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13658,17 +13756,17 @@
         <xdr:cNvPr id="225" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6205BA59-80D5-4057-83AF-DAC922AF2BA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EBE013-FA55-4682-A1CC-EAA1A2AF0FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13714,17 +13812,17 @@
         <xdr:cNvPr id="226" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC3B8A1-78CA-4DC4-9973-16F0FA69E440}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A397C5-A10A-48BD-98D1-72B5216CB43C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13770,17 +13868,17 @@
         <xdr:cNvPr id="227" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EBE013-FA55-4682-A1CC-EAA1A2AF0FC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CB89C8-858E-4E8B-A3FE-0AD00B6B73B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13826,17 +13924,17 @@
         <xdr:cNvPr id="228" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A397C5-A10A-48BD-98D1-72B5216CB43C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894DB465-EC7C-4B83-82E9-E34CFAF940FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13882,17 +13980,17 @@
         <xdr:cNvPr id="229" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CB89C8-858E-4E8B-A3FE-0AD00B6B73B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EF22F6-C3FD-462E-903A-D95BE525EC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13938,17 +14036,17 @@
         <xdr:cNvPr id="230" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894DB465-EC7C-4B83-82E9-E34CFAF940FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536810D4-C35C-4098-8F7B-E00804CFBB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13994,17 +14092,17 @@
         <xdr:cNvPr id="231" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EF22F6-C3FD-462E-903A-D95BE525EC22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC7080D-97EF-407B-A3F5-B619E545A17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14050,17 +14148,17 @@
         <xdr:cNvPr id="232" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536810D4-C35C-4098-8F7B-E00804CFBB9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3535A53-790A-42B1-8175-1749C800B335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14106,17 +14204,17 @@
         <xdr:cNvPr id="233" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC7080D-97EF-407B-A3F5-B619E545A17E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536541F1-02EC-49BC-91DE-A013FEACFCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14162,17 +14260,17 @@
         <xdr:cNvPr id="234" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3535A53-790A-42B1-8175-1749C800B335}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3A451B-E974-49BF-A51A-69CB081614F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14218,17 +14316,17 @@
         <xdr:cNvPr id="235" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536541F1-02EC-49BC-91DE-A013FEACFCB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4E408F-121E-47C6-865C-358BB8287A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14274,17 +14372,17 @@
         <xdr:cNvPr id="236" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3A451B-E974-49BF-A51A-69CB081614F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0648EAD-C123-4112-8346-DC30B269AEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14330,17 +14428,17 @@
         <xdr:cNvPr id="237" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4E408F-121E-47C6-865C-358BB8287A49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65DFAFD-D80F-45ED-85EB-172CA8DB9D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14386,17 +14484,17 @@
         <xdr:cNvPr id="238" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0648EAD-C123-4112-8346-DC30B269AEB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAF5614-C34D-43AC-AA6A-A937AC3ABA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14442,17 +14540,17 @@
         <xdr:cNvPr id="239" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65DFAFD-D80F-45ED-85EB-172CA8DB9D7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EBBEA2-4011-4104-81AF-97F9EB61E09C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14498,17 +14596,17 @@
         <xdr:cNvPr id="240" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAF5614-C34D-43AC-AA6A-A937AC3ABA0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1CD87A-0217-483D-8A26-8F02B6F49EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14554,17 +14652,17 @@
         <xdr:cNvPr id="241" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EBBEA2-4011-4104-81AF-97F9EB61E09C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D1C057-35EA-402B-A1CE-147D51332265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14610,17 +14708,17 @@
         <xdr:cNvPr id="242" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1CD87A-0217-483D-8A26-8F02B6F49EC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49B003A-EC3B-4336-B29E-7159176D90D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14666,17 +14764,17 @@
         <xdr:cNvPr id="243" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D1C057-35EA-402B-A1CE-147D51332265}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2883630D-8C07-4FD3-BD4A-BE900A2D5CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14722,17 +14820,17 @@
         <xdr:cNvPr id="244" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49B003A-EC3B-4336-B29E-7159176D90D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265E53BF-6318-488B-A9AD-689EAD7FB0D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14778,17 +14876,17 @@
         <xdr:cNvPr id="245" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2883630D-8C07-4FD3-BD4A-BE900A2D5CB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB62B285-3BE1-42D2-A05B-7442CD6DBFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14834,17 +14932,17 @@
         <xdr:cNvPr id="246" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265E53BF-6318-488B-A9AD-689EAD7FB0D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF756523-0095-4E61-8C7B-36389F7DBBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14890,17 +14988,17 @@
         <xdr:cNvPr id="247" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB62B285-3BE1-42D2-A05B-7442CD6DBFCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F04087-7DFA-453F-B243-8F7B6E1520E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14946,17 +15044,17 @@
         <xdr:cNvPr id="248" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF756523-0095-4E61-8C7B-36389F7DBBEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F41B8F-B683-43E8-A314-AD526EF75637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15002,17 +15100,17 @@
         <xdr:cNvPr id="249" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F04087-7DFA-453F-B243-8F7B6E1520E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA234CEC-D8AE-48DE-B2C4-CCB42C50BC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15058,17 +15156,17 @@
         <xdr:cNvPr id="250" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F41B8F-B683-43E8-A314-AD526EF75637}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F0A7C5-2BD8-4A40-B1CE-57453166AA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15114,17 +15212,17 @@
         <xdr:cNvPr id="251" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA234CEC-D8AE-48DE-B2C4-CCB42C50BC1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18726CB1-483D-4430-826D-DB6D94C19080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15170,17 +15268,17 @@
         <xdr:cNvPr id="252" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F0A7C5-2BD8-4A40-B1CE-57453166AA37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772896B7-5758-47FB-A948-203C6635FD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15226,17 +15324,17 @@
         <xdr:cNvPr id="253" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18726CB1-483D-4430-826D-DB6D94C19080}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE63FFB-D0B8-4976-9027-B4BF0F83DF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15282,17 +15380,17 @@
         <xdr:cNvPr id="254" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772896B7-5758-47FB-A948-203C6635FD25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36EE354-63DC-4916-9DDB-CE50591C91F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15338,17 +15436,17 @@
         <xdr:cNvPr id="255" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE63FFB-D0B8-4976-9027-B4BF0F83DF87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4E481F-980D-4D10-BFA2-87BB8B1234E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15394,17 +15492,17 @@
         <xdr:cNvPr id="256" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36EE354-63DC-4916-9DDB-CE50591C91F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3594636C-0F24-4AC9-935D-FD4D3410DB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15450,17 +15548,17 @@
         <xdr:cNvPr id="257" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4E481F-980D-4D10-BFA2-87BB8B1234E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36E1B32-858C-48A0-ACE1-F6AA825B3DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15506,17 +15604,17 @@
         <xdr:cNvPr id="258" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3594636C-0F24-4AC9-935D-FD4D3410DB0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BA013B-B053-447F-9C96-C75255017D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15562,17 +15660,17 @@
         <xdr:cNvPr id="259" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36E1B32-858C-48A0-ACE1-F6AA825B3DF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A587CF-8E1B-46DC-8853-8E30505936A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15618,17 +15716,17 @@
         <xdr:cNvPr id="260" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BA013B-B053-447F-9C96-C75255017D8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EF21DD-353E-4B02-B967-E2D572EFC01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15674,17 +15772,17 @@
         <xdr:cNvPr id="261" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A587CF-8E1B-46DC-8853-8E30505936A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3087D1-830B-4314-BE0F-B49E7831E1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15730,17 +15828,17 @@
         <xdr:cNvPr id="262" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EF21DD-353E-4B02-B967-E2D572EFC01E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0CCD21-962E-47C4-B1B6-E077EADD3FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15786,17 +15884,17 @@
         <xdr:cNvPr id="263" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3087D1-830B-4314-BE0F-B49E7831E1B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6ADD21-B5A9-4919-A6FE-B139786D0EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15842,17 +15940,17 @@
         <xdr:cNvPr id="264" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0CCD21-962E-47C4-B1B6-E077EADD3FD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC360F85-3113-406B-9B4B-8DA8042003F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15898,17 +15996,17 @@
         <xdr:cNvPr id="265" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6ADD21-B5A9-4919-A6FE-B139786D0EEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2F96D3-39DE-4E7E-80CF-F9DE76428A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15954,17 +16052,17 @@
         <xdr:cNvPr id="266" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC360F85-3113-406B-9B4B-8DA8042003F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE95641E-E2E6-4BA8-9783-66735CE563CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16010,17 +16108,17 @@
         <xdr:cNvPr id="267" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2F96D3-39DE-4E7E-80CF-F9DE76428A0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF03BF4-2C5E-4ADF-BCD4-1E52B048F638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16066,17 +16164,17 @@
         <xdr:cNvPr id="268" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE95641E-E2E6-4BA8-9783-66735CE563CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504C75AE-C28C-420A-9A02-442104B57320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16122,17 +16220,17 @@
         <xdr:cNvPr id="269" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF03BF4-2C5E-4ADF-BCD4-1E52B048F638}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396480A7-68E8-40E7-AB26-179BA114FE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16178,17 +16276,17 @@
         <xdr:cNvPr id="270" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504C75AE-C28C-420A-9A02-442104B57320}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EF6C43-8E8B-4607-9074-BE64B6FDC608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16234,17 +16332,17 @@
         <xdr:cNvPr id="271" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396480A7-68E8-40E7-AB26-179BA114FE62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD27BE5-4D2C-4B0C-A404-4B3853BCE2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16290,17 +16388,17 @@
         <xdr:cNvPr id="272" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EF6C43-8E8B-4607-9074-BE64B6FDC608}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675F27F3-4C5F-48F2-AEA1-07527F3C2316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16346,17 +16444,17 @@
         <xdr:cNvPr id="273" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD27BE5-4D2C-4B0C-A404-4B3853BCE2DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7C2062-61E4-4C03-8D95-26E4BA5274F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16402,17 +16500,17 @@
         <xdr:cNvPr id="274" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675F27F3-4C5F-48F2-AEA1-07527F3C2316}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874E0E2B-5739-4921-8509-B21CFA535710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16458,17 +16556,17 @@
         <xdr:cNvPr id="275" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7C2062-61E4-4C03-8D95-26E4BA5274F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698B9CE1-2ECD-47E6-B753-28F615842551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16514,17 +16612,17 @@
         <xdr:cNvPr id="276" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874E0E2B-5739-4921-8509-B21CFA535710}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7589D798-E9C2-42E2-9441-BCD21492235E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16570,17 +16668,17 @@
         <xdr:cNvPr id="277" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698B9CE1-2ECD-47E6-B753-28F615842551}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52574156-916B-472D-B004-C46AF82231F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16626,17 +16724,17 @@
         <xdr:cNvPr id="278" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7589D798-E9C2-42E2-9441-BCD21492235E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B70581D-4711-40D3-BEA3-8C037B9494B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16682,17 +16780,17 @@
         <xdr:cNvPr id="279" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52574156-916B-472D-B004-C46AF82231F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC351B66-0B1E-4409-8402-0185F4B0E64E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16738,17 +16836,17 @@
         <xdr:cNvPr id="280" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B70581D-4711-40D3-BEA3-8C037B9494B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B810F80-BAD9-4144-8AB4-502B3A75BCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16794,17 +16892,17 @@
         <xdr:cNvPr id="281" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC351B66-0B1E-4409-8402-0185F4B0E64E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002C6696-84E2-4BCC-9CF8-63B7F5A477F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16850,17 +16948,17 @@
         <xdr:cNvPr id="282" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B810F80-BAD9-4144-8AB4-502B3A75BCAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E93BAE-4C17-41A7-8D68-652A1D837A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16906,17 +17004,17 @@
         <xdr:cNvPr id="283" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002C6696-84E2-4BCC-9CF8-63B7F5A477F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4834C2-F99B-4015-ABF8-A1F0814B8BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16962,17 +17060,17 @@
         <xdr:cNvPr id="284" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E93BAE-4C17-41A7-8D68-652A1D837A20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DADC8D4-4E11-46FD-A524-3246E828DC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17018,17 +17116,17 @@
         <xdr:cNvPr id="285" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4834C2-F99B-4015-ABF8-A1F0814B8BD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F28BEF-97A6-4E85-B0FC-F46CA3E1D37F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17074,17 +17172,17 @@
         <xdr:cNvPr id="286" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DADC8D4-4E11-46FD-A524-3246E828DC03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE362B6-CD37-4F1C-9864-4B3F96FC3615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17130,17 +17228,17 @@
         <xdr:cNvPr id="287" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F28BEF-97A6-4E85-B0FC-F46CA3E1D37F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86289C8B-26B6-44AE-BB34-91306E6F7490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17186,17 +17284,17 @@
         <xdr:cNvPr id="288" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE362B6-CD37-4F1C-9864-4B3F96FC3615}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411AA7EC-2D23-4665-869A-1D4A716EC093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17242,17 +17340,17 @@
         <xdr:cNvPr id="289" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86289C8B-26B6-44AE-BB34-91306E6F7490}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACDBE13-1374-4C89-B51A-C7503EDF9730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17298,17 +17396,17 @@
         <xdr:cNvPr id="290" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411AA7EC-2D23-4665-869A-1D4A716EC093}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF9165C-0BC7-4AB2-B28C-2F7FF7BE4F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17354,17 +17452,17 @@
         <xdr:cNvPr id="291" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACDBE13-1374-4C89-B51A-C7503EDF9730}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9E155C-6467-475C-8F9D-BCCC1BC99B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17410,17 +17508,17 @@
         <xdr:cNvPr id="292" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF9165C-0BC7-4AB2-B28C-2F7FF7BE4F8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25FD9B0-61C6-4D37-9F92-3FDCC8287055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17466,17 +17564,17 @@
         <xdr:cNvPr id="293" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9E155C-6467-475C-8F9D-BCCC1BC99B35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C7BC3D-3531-436F-9F7A-71FA47BECFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17522,17 +17620,17 @@
         <xdr:cNvPr id="294" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25FD9B0-61C6-4D37-9F92-3FDCC8287055}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDBCACD-7CA7-4ACD-B595-679B8099FCC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8176260" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17578,129 +17676,17 @@
         <xdr:cNvPr id="295" name="Text Box 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C7BC3D-3531-436F-9F7A-71FA47BECFB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
-          <a:ext cx="68580" cy="220980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="68580" cy="220980"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="296" name="Text Box 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDBCACD-7CA7-4ACD-B595-679B8099FCC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
-          <a:ext cx="68580" cy="220980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="68580" cy="220980"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="297" name="Text Box 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6A06D6-875A-453B-88F6-072E526E48F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7284720" y="3489960"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6A06D6-875A-453B-88F6-072E526E48F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8172450" y="3495675"/>
           <a:ext cx="68580" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17748,10 +17734,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="298" name="テキスト 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1886FFD9-2404-4A56-A5A1-20FBEEFBDD02}"/>
+        <xdr:cNvPr id="296" name="テキスト 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1886FFD9-2404-4A56-A5A1-20FBEEFBDD02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17762,7 +17748,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="60960" y="325120"/>
-          <a:ext cx="10137140" cy="1841500"/>
+          <a:ext cx="11339195" cy="1843405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18341,10 +18327,10 @@
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="299" name="图片 298">
+            <xdr:cNvPr id="297" name="图片 296">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6B92D5-785B-41DE-816B-506F57EB18A9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6B92D5-785B-41DE-816B-506F57EB18A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18352,7 +18338,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1028"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1026"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -18366,8 +18352,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="11559540" y="220980"/>
-              <a:ext cx="3144520" cy="1051560"/>
+              <a:off x="12913995" y="220980"/>
+              <a:ext cx="3525520" cy="1053465"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18404,44 +18390,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -18469,31 +18455,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -18521,23 +18490,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18549,158 +18501,182 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09213D3-3AB9-4528-9CD5-EA473E179179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="8" customFormat="1" ht="27" customHeight="1">
@@ -18734,7 +18710,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="7" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="8" customFormat="1" ht="21.75" customHeight="1">
@@ -18766,7 +18742,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="8" customFormat="1" ht="102" customHeight="1">
@@ -18800,37 +18776,37 @@
     <row r="5" spans="1:29" s="17" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
       <c r="A5" s="16"/>
       <c r="B5" s="85" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="75"/>
       <c r="J5" s="75"/>
       <c r="K5" s="76"/>
       <c r="L5" s="77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" s="80"/>
       <c r="P5" s="80"/>
@@ -18843,10 +18819,10 @@
       <c r="W5" s="80"/>
       <c r="X5" s="81"/>
       <c r="Y5" s="82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA5" s="67"/>
       <c r="AB5" s="68"/>
@@ -18860,51 +18836,51 @@
       <c r="F6" s="77"/>
       <c r="G6" s="73"/>
       <c r="H6" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="77"/>
       <c r="M6" s="78"/>
       <c r="N6" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W6" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y6" s="83"/>
       <c r="Z6" s="69"/>
@@ -18941,7 +18917,7 @@
       <c r="AA7" s="31"/>
       <c r="AB7" s="32"/>
     </row>
-    <row r="8" spans="1:29" s="47" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="8" spans="1:29" s="49" customFormat="1" ht="33" customHeight="1" thickBot="1">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -18967,90 +18943,90 @@
       <c r="W8" s="43"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="45"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="48"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" s="47" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56" t="s">
+    <row r="9" spans="1:29" s="49" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
+      <c r="A9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
     </row>
-    <row r="10" spans="1:29" s="47" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+    <row r="10" spans="1:29" s="49" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:29" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+    <row r="11" spans="1:29" s="49" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="47" t="s">
+      <c r="G11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
     </row>
-    <row r="12" spans="1:29" s="47" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
+    <row r="12" spans="1:29" s="49" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
-      <c r="G12" s="63" t="s">
-        <v>33</v>
+      <c r="G12" s="65" t="s">
+        <v>34</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="AA12" s="52"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="AA12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
